--- a/database/generate_data/user_table.xlsx
+++ b/database/generate_data/user_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7C62B-C2D0-458C-8281-65045C352716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D0DF3-5549-41CB-9D98-F57CCB32C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>USER_NAME</t>
   </si>
@@ -474,24 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,751 +506,655 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27520001</v>
       </c>
-      <c r="B2">
-        <v>27520001</v>
-      </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT(B2,"@gm.uit.edu.vn")</f>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT(A2,"@gm.uit.edu.vn")</f>
         <v>27520001@gm.uit.edu.vn</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>60945</v>
       </c>
       <c r="E2">
-        <v>60945</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>27520002</v>
       </c>
-      <c r="B3">
-        <v>27520002</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C32" si="0">_xlfn.CONCAT(B3,"@gm.uit.edu.vn")</f>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B32" si="0">_xlfn.CONCAT(A3,"@gm.uit.edu.vn")</f>
         <v>27520002@gm.uit.edu.vn</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10916</v>
       </c>
       <c r="E3">
-        <v>10916</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>27520003</v>
       </c>
-      <c r="B4">
-        <v>27520003</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>27520003@gm.uit.edu.vn</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>89189</v>
       </c>
       <c r="E4">
-        <v>89189</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>27520004</v>
       </c>
-      <c r="B5">
-        <v>27520004</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>27520004@gm.uit.edu.vn</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>97244</v>
       </c>
       <c r="E5">
-        <v>97244</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>27520005</v>
       </c>
-      <c r="B6">
-        <v>27520005</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>27520005@gm.uit.edu.vn</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>79746</v>
       </c>
       <c r="E6">
-        <v>79746</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>27520006</v>
       </c>
-      <c r="B7">
-        <v>27520006</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>27520006@gm.uit.edu.vn</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>34218</v>
       </c>
       <c r="E7">
-        <v>34218</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>27520007</v>
       </c>
-      <c r="B8">
-        <v>27520007</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>27520007@gm.uit.edu.vn</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>33292</v>
       </c>
       <c r="E8">
-        <v>33292</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>27520008</v>
       </c>
-      <c r="B9">
-        <v>27520008</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>27520008@gm.uit.edu.vn</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>22911</v>
       </c>
       <c r="E9">
-        <v>22911</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>27520009</v>
       </c>
-      <c r="B10">
-        <v>27520009</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>27520009@gm.uit.edu.vn</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>37655</v>
       </c>
       <c r="E10">
-        <v>37655</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>27520010</v>
       </c>
-      <c r="B11">
-        <v>27520010</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>27520010@gm.uit.edu.vn</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>21417</v>
       </c>
       <c r="E11">
-        <v>21417</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>27520011</v>
       </c>
-      <c r="B12">
-        <v>27520011</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>27520011@gm.uit.edu.vn</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>47981</v>
       </c>
       <c r="E12">
-        <v>47981</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>27520012</v>
       </c>
-      <c r="B13">
-        <v>27520012</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>27520012@gm.uit.edu.vn</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>83890</v>
       </c>
       <c r="E13">
-        <v>83890</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>27520013</v>
       </c>
-      <c r="B14">
-        <v>27520013</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>27520013@gm.uit.edu.vn</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>50034</v>
       </c>
       <c r="E14">
-        <v>50034</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>27520014</v>
       </c>
-      <c r="B15">
-        <v>27520014</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>27520014@gm.uit.edu.vn</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>96742</v>
       </c>
       <c r="E15">
-        <v>96742</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>27520015</v>
       </c>
-      <c r="B16">
-        <v>27520015</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>27520015@gm.uit.edu.vn</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>84743</v>
       </c>
       <c r="E16">
-        <v>84743</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>27520016</v>
       </c>
-      <c r="B17">
-        <v>27520016</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>27520016@gm.uit.edu.vn</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>48810</v>
       </c>
       <c r="E17">
-        <v>48810</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>27520017</v>
       </c>
-      <c r="B18">
-        <v>27520017</v>
-      </c>
-      <c r="C18" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>27520017@gm.uit.edu.vn</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>78419</v>
       </c>
       <c r="E18">
-        <v>78419</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27520018</v>
       </c>
-      <c r="B19">
-        <v>27520018</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>27520018@gm.uit.edu.vn</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>27722</v>
       </c>
       <c r="E19">
-        <v>27722</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>27520019</v>
       </c>
-      <c r="B20">
-        <v>27520019</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>27520019@gm.uit.edu.vn</v>
       </c>
-      <c r="D20" t="s">
-        <v>25</v>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>75630</v>
       </c>
       <c r="E20">
-        <v>75630</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>27520020</v>
       </c>
-      <c r="B21">
-        <v>27520020</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>27520020@gm.uit.edu.vn</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>46066</v>
       </c>
       <c r="E21">
-        <v>46066</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>27520021</v>
       </c>
-      <c r="B22">
-        <v>27520021</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>27520021@gm.uit.edu.vn</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>68514</v>
       </c>
       <c r="E22">
-        <v>68514</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>27520022</v>
       </c>
-      <c r="B23">
-        <v>27520022</v>
-      </c>
-      <c r="C23" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>27520022@gm.uit.edu.vn</v>
       </c>
-      <c r="D23" t="s">
-        <v>28</v>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>19397</v>
       </c>
       <c r="E23">
-        <v>19397</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>27520023</v>
       </c>
-      <c r="B24">
-        <v>27520023</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>27520023@gm.uit.edu.vn</v>
       </c>
-      <c r="D24" t="s">
-        <v>29</v>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>85502</v>
       </c>
       <c r="E24">
-        <v>85502</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>27520024</v>
       </c>
-      <c r="B25">
-        <v>27520024</v>
-      </c>
-      <c r="C25" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>27520024@gm.uit.edu.vn</v>
       </c>
-      <c r="D25" t="s">
-        <v>30</v>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>42226</v>
       </c>
       <c r="E25">
-        <v>42226</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>27520025</v>
       </c>
-      <c r="B26">
-        <v>27520025</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>27520025@gm.uit.edu.vn</v>
       </c>
-      <c r="D26" t="s">
-        <v>31</v>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>60404</v>
       </c>
       <c r="E26">
-        <v>60404</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27520026</v>
       </c>
-      <c r="B27">
-        <v>27520026</v>
-      </c>
-      <c r="C27" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>27520026@gm.uit.edu.vn</v>
       </c>
-      <c r="D27" t="s">
-        <v>32</v>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>97194</v>
       </c>
       <c r="E27">
-        <v>97194</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27520027</v>
       </c>
-      <c r="B28">
-        <v>27520027</v>
-      </c>
-      <c r="C28" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>27520027@gm.uit.edu.vn</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>37072</v>
       </c>
       <c r="E28">
-        <v>37072</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27520028</v>
       </c>
-      <c r="B29">
-        <v>27520028</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>27520028@gm.uit.edu.vn</v>
       </c>
-      <c r="D29" t="s">
-        <v>34</v>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>62814</v>
       </c>
       <c r="E29">
-        <v>62814</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27520029</v>
       </c>
-      <c r="B30">
-        <v>27520029</v>
-      </c>
-      <c r="C30" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>27520029@gm.uit.edu.vn</v>
       </c>
-      <c r="D30" t="s">
-        <v>35</v>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>67527</v>
       </c>
       <c r="E30">
-        <v>67527</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>27520030</v>
       </c>
-      <c r="B31">
-        <v>27520030</v>
-      </c>
-      <c r="C31" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>27520030@gm.uit.edu.vn</v>
       </c>
-      <c r="D31" t="s">
-        <v>36</v>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>78391</v>
       </c>
       <c r="E31">
-        <v>78391</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>27520031</v>
       </c>
-      <c r="B32">
-        <v>27520031</v>
-      </c>
-      <c r="C32" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>27520031@gm.uit.edu.vn</v>
       </c>
-      <c r="D32" t="s">
-        <v>37</v>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>56684</v>
       </c>
       <c r="E32">
-        <v>56684</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
         <v>0</v>
       </c>
     </row>
